--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>38.5</v>
+        <v>76.307</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="16">
@@ -795,7 +795,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="9" t="n">
-        <v>50.1</v>
+        <v>99.298</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="16">
@@ -813,7 +813,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="9" t="n">
-        <v>60</v>
+        <v>118.919</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="16">
@@ -831,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="9" t="n">
-        <v>95.7</v>
+        <v>189.676</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="16">
@@ -849,7 +849,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="9" t="n">
-        <v>119.4</v>
+        <v>236.649</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="16">
@@ -867,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="9" t="n">
-        <v>149.1</v>
+        <v>295.514</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="16">
@@ -885,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="9" t="n">
-        <v>167</v>
+        <v>330.991</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" s="16">
@@ -903,7 +903,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="9" t="n">
-        <v>185</v>
+        <v>366.666</v>
       </c>
     </row>
     <row r="42">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>76.307</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="16">
@@ -795,7 +795,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="9" t="n">
-        <v>99.298</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="16">
@@ -813,7 +813,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="9" t="n">
-        <v>118.919</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="16">
@@ -831,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="9" t="n">
-        <v>189.676</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="16">
@@ -849,7 +849,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="9" t="n">
-        <v>236.649</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="16">
@@ -867,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="9" t="n">
-        <v>295.514</v>
+        <v>149.1</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="16">
@@ -885,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="9" t="n">
-        <v>330.991</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" s="16">
@@ -903,7 +903,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="9" t="n">
-        <v>366.666</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>38.5</v>
+        <v>83.175</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="16">
@@ -795,7 +795,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="9" t="n">
-        <v>50.1</v>
+        <v>108.235</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="16">
@@ -813,7 +813,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="9" t="n">
-        <v>60</v>
+        <v>129.622</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="16">
@@ -831,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="9" t="n">
-        <v>95.7</v>
+        <v>206.747</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="16">
@@ -849,7 +849,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="9" t="n">
-        <v>119.4</v>
+        <v>257.947</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="16">
@@ -867,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="9" t="n">
-        <v>149.1</v>
+        <v>322.11</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="16">
@@ -885,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="9" t="n">
-        <v>167</v>
+        <v>360.78</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" s="16">
@@ -903,7 +903,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="9" t="n">
-        <v>185</v>
+        <v>399.666</v>
       </c>
     </row>
     <row r="42">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
